--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1816127.486704611</v>
+        <v>1741795.660346317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301853.0035786782</v>
+        <v>301853.0035786781</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15609235.68401651</v>
+        <v>15609235.68401653</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="H11" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.41347583277424</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W12" t="n">
-        <v>173.2089786869167</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.882134867989901</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.777489009342446</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>20.1499838649903</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="G14" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="H14" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>156.1816162589255</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8567711003606</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -1700,10 +1700,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>15.081529729958</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="16">
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.882134867989901</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.777489009342446</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,61 +1846,61 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24.50765323923466</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>20.1499838649903</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>131.6739630196908</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="H17" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>17.29809627876381</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>200.194823028969</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="V18" t="n">
-        <v>53.09543380873295</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2043,34 +2043,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>22.11559458593022</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,58 +2089,58 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>152.9181242911416</v>
+      </c>
+      <c r="S20" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="F20" t="n">
+      <c r="T20" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="G20" t="n">
+      <c r="U20" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="H20" t="n">
-        <v>176.3316001239159</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>23.41347583277423</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,61 +2162,61 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>173.9843481253239</v>
+      </c>
+      <c r="G21" t="n">
+        <v>79.30590871237801</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>124.3855037073765</v>
+      </c>
+      <c r="S21" t="n">
+        <v>199.0454856367754</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="D21" t="n">
-        <v>172.0989423795122</v>
-      </c>
-      <c r="E21" t="n">
-        <v>187.4605452976028</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>116.8507583236615</v>
-      </c>
-      <c r="I21" t="n">
-        <v>100.3110001810774</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>151.8239468846812</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>200.194823028969</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S24" t="n">
-        <v>199.0454856367754</v>
+        <v>16.14875888657024</v>
       </c>
       <c r="T24" t="n">
-        <v>65.27749945666751</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="25">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>23.41347583277421</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>200.194823028969</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.14875888657025</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T27" t="n">
-        <v>200.194823028969</v>
+        <v>177.4809375161094</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>200.194823028969</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.11559458593022</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>176.3316001239158</v>
+      </c>
+      <c r="E29" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>56.96124893162432</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>15.081529729958</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,58 +2964,58 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>22.11559458593022</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,46 +3040,46 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.41347583277445</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>152.9181242911416</v>
+      </c>
+      <c r="S32" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>20.1499838649903</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>200.194823028969</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>156.1816162589255</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>76.02059994283842</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T33" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>177.4809375161094</v>
       </c>
       <c r="W33" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>199.1006456225086</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>152.9181242911416</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="T35" t="n">
+      <c r="Y35" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="U35" t="n">
-        <v>3.263491967783898</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.3316001239158</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W36" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="X36" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.194823028969</v>
+        <v>176.3316001239158</v>
       </c>
     </row>
     <row r="37">
@@ -3462,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
     </row>
     <row r="38">
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>151.8239468846812</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>23.41347583277423</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>200.194823028969</v>
       </c>
       <c r="V38" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.14900112370428</v>
+        <v>15.79992974780736</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3742,73 +3742,73 @@
         <v>200.194823028969</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>176.3316001239158</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="D41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="E41" t="n">
-        <v>156.1816162589257</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>20.1499838649903</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>35.79733752996914</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.8311677007411</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>28.88303661793638</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3982,58 +3982,58 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>156.1816162589255</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>200.194823028969</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>200.194823028969</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>200.194823028969</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>20.1499838649903</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>200.194823028969</v>
       </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
       <c r="V45" t="n">
-        <v>176.3316001239158</v>
+        <v>200.194823028969</v>
       </c>
       <c r="W45" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="X45" t="n">
-        <v>200.194823028969</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>16.14875888657025</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>22.11559458593022</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.45597070859787</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>8.659623877332349</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>646.3165403066417</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="C11" t="n">
-        <v>646.3165403066417</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="D11" t="n">
-        <v>646.3165403066417</v>
+        <v>218.232578800872</v>
       </c>
       <c r="E11" t="n">
-        <v>646.3165403066417</v>
+        <v>218.232578800872</v>
       </c>
       <c r="F11" t="n">
-        <v>444.0995473480873</v>
+        <v>218.232578800872</v>
       </c>
       <c r="G11" t="n">
-        <v>241.8825543895328</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H11" t="n">
-        <v>39.66556143097836</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I11" t="n">
-        <v>16.01558584231751</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J11" t="n">
-        <v>16.01558584231751</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K11" t="n">
         <v>72.05899007812815</v>
@@ -5050,43 +5050,43 @@
         <v>199.5520805245968</v>
       </c>
       <c r="M11" t="n">
-        <v>383.8129092844015</v>
+        <v>383.8129092844018</v>
       </c>
       <c r="N11" t="n">
-        <v>572.7990561059414</v>
+        <v>572.7990561059416</v>
       </c>
       <c r="O11" t="n">
-        <v>723.4688780473043</v>
+        <v>723.4688780473045</v>
       </c>
       <c r="P11" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q11" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="X11" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Y11" t="n">
-        <v>646.3165403066417</v>
+        <v>622.6665647179811</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F12" t="n">
-        <v>450.0789620025013</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G12" t="n">
-        <v>287.9257596023917</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H12" t="n">
-        <v>153.498755247415</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I12" t="n">
-        <v>52.17451264026614</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J12" t="n">
-        <v>16.01558584231751</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K12" t="n">
-        <v>16.01558584231751</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L12" t="n">
         <v>176.8739046191359</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0667794178152</v>
+        <v>375.0667794178153</v>
       </c>
       <c r="N12" t="n">
-        <v>573.2596542164944</v>
+        <v>503.5415609918188</v>
       </c>
       <c r="O12" t="n">
-        <v>678.8352059693927</v>
+        <v>689.9545970498701</v>
       </c>
       <c r="P12" t="n">
-        <v>800.7792921158757</v>
+        <v>792.9921536562631</v>
       </c>
       <c r="Q12" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R12" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S12" t="n">
-        <v>800.7792921158757</v>
+        <v>622.6665647179811</v>
       </c>
       <c r="T12" t="n">
-        <v>800.7792921158757</v>
+        <v>622.6665647179811</v>
       </c>
       <c r="U12" t="n">
-        <v>800.7792921158757</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="V12" t="n">
-        <v>800.7792921158757</v>
+        <v>218.232578800872</v>
       </c>
       <c r="W12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y12" t="n">
-        <v>625.8207277856568</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K13" t="n">
-        <v>16.80092827599675</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L13" t="n">
-        <v>16.01558584231751</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="M13" t="n">
         <v>21.82328755457459</v>
       </c>
       <c r="N13" t="n">
-        <v>38.35457027255006</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X13" t="n">
-        <v>24.76268066790574</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.76268066790574</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.7792921158759</v>
+        <v>218.232578800872</v>
       </c>
       <c r="C14" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D14" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E14" t="n">
-        <v>622.6665647179811</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F14" t="n">
-        <v>420.4495717594266</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G14" t="n">
-        <v>218.232578800872</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H14" t="n">
         <v>16.01558584231752</v>
@@ -5281,10 +5281,10 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K14" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L14" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M14" t="n">
         <v>383.8129092844018</v>
@@ -5299,31 +5299,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="R14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="S14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="T14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="U14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="V14" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="W14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="X14" t="n">
-        <v>800.7792921158759</v>
+        <v>578.2087801017756</v>
       </c>
       <c r="Y14" t="n">
-        <v>800.7792921158759</v>
+        <v>420.4495717594266</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>800.7792921158759</v>
+        <v>381.1114377846678</v>
       </c>
       <c r="C15" t="n">
-        <v>800.7792921158759</v>
+        <v>381.1114377846678</v>
       </c>
       <c r="D15" t="n">
-        <v>677.6916445397541</v>
+        <v>381.1114377846678</v>
       </c>
       <c r="E15" t="n">
-        <v>488.3375583805593</v>
+        <v>191.757351625473</v>
       </c>
       <c r="F15" t="n">
-        <v>312.5957925974038</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G15" t="n">
-        <v>150.4425901972942</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H15" t="n">
         <v>16.01558584231752</v>
@@ -5360,16 +5360,16 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K15" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L15" t="n">
-        <v>176.8739046191359</v>
+        <v>189.6294428362003</v>
       </c>
       <c r="M15" t="n">
-        <v>286.4421566530494</v>
+        <v>387.8223176348796</v>
       </c>
       <c r="N15" t="n">
-        <v>484.6350314517288</v>
+        <v>586.0151924335589</v>
       </c>
       <c r="O15" t="n">
         <v>671.0480675097801</v>
@@ -5387,22 +5387,22 @@
         <v>800.7792921158759</v>
       </c>
       <c r="T15" t="n">
-        <v>800.7792921158759</v>
+        <v>785.5454237017769</v>
       </c>
       <c r="U15" t="n">
-        <v>800.7792921158759</v>
+        <v>785.5454237017769</v>
       </c>
       <c r="V15" t="n">
-        <v>800.7792921158759</v>
+        <v>785.5454237017769</v>
       </c>
       <c r="W15" t="n">
-        <v>800.7792921158759</v>
+        <v>785.5454237017769</v>
       </c>
       <c r="X15" t="n">
-        <v>800.7792921158759</v>
+        <v>583.3284307432224</v>
       </c>
       <c r="Y15" t="n">
-        <v>800.7792921158759</v>
+        <v>381.1114377846678</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K16" t="n">
-        <v>16.80092827599676</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L16" t="n">
         <v>16.01558584231752</v>
@@ -5451,37 +5451,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O16" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P16" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R16" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S16" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="U16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.76268066790575</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="C17" t="n">
-        <v>800.7792921158759</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="D17" t="n">
-        <v>800.7792921158759</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="E17" t="n">
-        <v>800.7792921158759</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="F17" t="n">
-        <v>622.6665647179811</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="G17" t="n">
-        <v>420.4495717594266</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="H17" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="I17" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="J17" t="n">
         <v>16.01558584231752</v>
@@ -5524,7 +5524,7 @@
         <v>199.5520805245968</v>
       </c>
       <c r="M17" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N17" t="n">
         <v>572.7990561059416</v>
@@ -5536,31 +5536,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="R17" t="n">
-        <v>800.7792921158759</v>
+        <v>780.4257730603301</v>
       </c>
       <c r="S17" t="n">
-        <v>800.7792921158759</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="T17" t="n">
-        <v>800.7792921158759</v>
+        <v>647.4217700101374</v>
       </c>
       <c r="U17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="V17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="W17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="X17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.7792921158759</v>
+        <v>445.2047770515828</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.01558584231752</v>
+        <v>69.64733716427</v>
       </c>
       <c r="C18" t="n">
-        <v>16.01558584231752</v>
+        <v>69.64733716427</v>
       </c>
       <c r="D18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="E18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="F18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="G18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="H18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="I18" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="J18" t="n">
         <v>16.01558584231752</v>
@@ -5603,16 +5603,16 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M18" t="n">
-        <v>387.8223176348796</v>
+        <v>347.8378015316988</v>
       </c>
       <c r="N18" t="n">
-        <v>586.0151924335589</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O18" t="n">
-        <v>671.0480675097801</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P18" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q18" t="n">
         <v>800.7792921158759</v>
@@ -5627,19 +5627,19 @@
         <v>271.8643301228245</v>
       </c>
       <c r="U18" t="n">
+        <v>271.8643301228245</v>
+      </c>
+      <c r="V18" t="n">
         <v>69.64733716427</v>
       </c>
-      <c r="V18" t="n">
-        <v>16.01558584231752</v>
-      </c>
       <c r="W18" t="n">
-        <v>16.01558584231752</v>
+        <v>69.64733716427</v>
       </c>
       <c r="X18" t="n">
-        <v>16.01558584231752</v>
+        <v>69.64733716427</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.01558584231752</v>
+        <v>69.64733716427</v>
       </c>
     </row>
     <row r="19">
@@ -5691,31 +5691,31 @@
         <v>38.35457027255007</v>
       </c>
       <c r="P19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X19" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y19" t="n">
         <v>16.01558584231752</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E20" t="n">
-        <v>598.5622991573216</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F20" t="n">
-        <v>396.345306198767</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G20" t="n">
-        <v>194.1283132402124</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H20" t="n">
         <v>16.01558584231752</v>
@@ -5755,49 +5755,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K20" t="n">
-        <v>72.05899007812809</v>
+        <v>72.05899007812815</v>
       </c>
       <c r="L20" t="n">
-        <v>199.5520805245967</v>
+        <v>199.5520805245968</v>
       </c>
       <c r="M20" t="n">
-        <v>383.8129092844022</v>
+        <v>383.8129092844018</v>
       </c>
       <c r="N20" t="n">
-        <v>572.7990561059419</v>
+        <v>572.7990561059416</v>
       </c>
       <c r="O20" t="n">
-        <v>723.4688780473048</v>
+        <v>723.4688780473045</v>
       </c>
       <c r="P20" t="n">
-        <v>800.7792921158762</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.7792921158762</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R20" t="n">
-        <v>800.7792921158762</v>
+        <v>646.316540306642</v>
       </c>
       <c r="S20" t="n">
-        <v>800.7792921158762</v>
+        <v>444.0995473480874</v>
       </c>
       <c r="T20" t="n">
-        <v>800.7792921158762</v>
+        <v>241.8825543895329</v>
       </c>
       <c r="U20" t="n">
-        <v>800.7792921158762</v>
+        <v>39.66556143097836</v>
       </c>
       <c r="V20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.7792921158762</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="C21" t="n">
-        <v>598.5622991573216</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="D21" t="n">
-        <v>424.7249836224607</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="E21" t="n">
-        <v>235.3708974632659</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="F21" t="n">
-        <v>235.3708974632659</v>
+        <v>96.12256433966905</v>
       </c>
       <c r="G21" t="n">
-        <v>235.3708974632659</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H21" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I21" t="n">
         <v>16.01558584231752</v>
@@ -5834,49 +5834,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K21" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L21" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M21" t="n">
-        <v>375.0667794178153</v>
+        <v>441.397857320185</v>
       </c>
       <c r="N21" t="n">
-        <v>566.6073480996488</v>
+        <v>586.0151924335589</v>
       </c>
       <c r="O21" t="n">
-        <v>753.0203841577002</v>
+        <v>671.0480675097801</v>
       </c>
       <c r="P21" t="n">
-        <v>792.9921536562633</v>
+        <v>792.9921536562631</v>
       </c>
       <c r="Q21" t="n">
-        <v>800.7792921158762</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R21" t="n">
-        <v>800.7792921158762</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S21" t="n">
-        <v>800.7792921158762</v>
+        <v>474.0813230813791</v>
       </c>
       <c r="T21" t="n">
-        <v>800.7792921158762</v>
+        <v>474.0813230813791</v>
       </c>
       <c r="U21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="V21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="W21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="X21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="Y21" t="n">
-        <v>800.7792921158762</v>
+        <v>271.8643301228245</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="C22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="E22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="F22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="G22" t="n">
         <v>16.01558584231752</v>
@@ -5919,43 +5919,43 @@
         <v>16.01558584231752</v>
       </c>
       <c r="M22" t="n">
-        <v>21.8232875545746</v>
+        <v>21.82328755457459</v>
       </c>
       <c r="N22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V22" t="n">
-        <v>38.35457027255008</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I23" t="n">
-        <v>40.77079113447374</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J23" t="n">
         <v>16.01558584231752</v>
@@ -6013,28 +6013,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R23" t="n">
-        <v>647.4217700101374</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S23" t="n">
-        <v>445.2047770515828</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="T23" t="n">
-        <v>242.9877840930283</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="U23" t="n">
-        <v>242.9877840930283</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="V23" t="n">
-        <v>242.9877840930283</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W23" t="n">
-        <v>242.9877840930283</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X23" t="n">
-        <v>242.9877840930283</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.9877840930283</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>218.232578800872</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="C24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="D24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="E24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="F24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="G24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="I24" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="J24" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K24" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L24" t="n">
-        <v>176.8739046191359</v>
+        <v>165.7545135386588</v>
       </c>
       <c r="M24" t="n">
-        <v>375.0667794178153</v>
+        <v>363.9473883373381</v>
       </c>
       <c r="N24" t="n">
-        <v>503.5415609918188</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O24" t="n">
-        <v>671.0480675097801</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P24" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q24" t="n">
         <v>800.7792921158759</v>
@@ -6095,25 +6095,25 @@
         <v>675.1373691791321</v>
       </c>
       <c r="S24" t="n">
-        <v>474.0813230813791</v>
+        <v>658.8254915159298</v>
       </c>
       <c r="T24" t="n">
-        <v>408.1444549433311</v>
+        <v>658.8254915159298</v>
       </c>
       <c r="U24" t="n">
-        <v>408.1444549433311</v>
+        <v>456.6084985573752</v>
       </c>
       <c r="V24" t="n">
-        <v>408.1444549433311</v>
+        <v>254.3915055988207</v>
       </c>
       <c r="W24" t="n">
-        <v>408.1444549433311</v>
+        <v>254.3915055988207</v>
       </c>
       <c r="X24" t="n">
-        <v>408.1444549433311</v>
+        <v>254.3915055988207</v>
       </c>
       <c r="Y24" t="n">
-        <v>408.1444549433311</v>
+        <v>52.17451264026615</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="M25" t="n">
-        <v>784.2480093979004</v>
+        <v>21.82328755457459</v>
       </c>
       <c r="N25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T25" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U25" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V25" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W25" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y25" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C26" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D26" t="n">
-        <v>16.01558584231752</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="E26" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="F26" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01558584231752</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="H26" t="n">
         <v>16.01558584231752</v>
@@ -6226,10 +6226,10 @@
         <v>16.01558584231752</v>
       </c>
       <c r="J26" t="n">
-        <v>16.01558584231734</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K26" t="n">
-        <v>72.05899007812789</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L26" t="n">
         <v>199.5520805245965</v>
@@ -6250,28 +6250,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R26" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S26" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T26" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U26" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V26" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W26" t="n">
-        <v>622.6665647179811</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="X26" t="n">
-        <v>420.4495717594266</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Y26" t="n">
-        <v>218.232578800872</v>
+        <v>598.5622991573214</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>270.703383262023</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H27" t="n">
-        <v>68.48639030346843</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I27" t="n">
-        <v>52.17451264026615</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J27" t="n">
         <v>16.01558584231752</v>
@@ -6314,43 +6314,43 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M27" t="n">
-        <v>356.1602498777253</v>
+        <v>363.9473883373381</v>
       </c>
       <c r="N27" t="n">
-        <v>484.6350314517288</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O27" t="n">
-        <v>671.0480675097801</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P27" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q27" t="n">
         <v>800.7792921158759</v>
       </c>
       <c r="R27" t="n">
-        <v>675.1373691791321</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S27" t="n">
-        <v>675.1373691791321</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="T27" t="n">
-        <v>472.9203762205775</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="U27" t="n">
-        <v>472.9203762205775</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="V27" t="n">
-        <v>472.9203762205775</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="W27" t="n">
-        <v>472.9203762205775</v>
+        <v>420.4495717594266</v>
       </c>
       <c r="X27" t="n">
-        <v>270.703383262023</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y27" t="n">
-        <v>270.703383262023</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="28">
@@ -6408,16 +6408,16 @@
         <v>38.35457027255007</v>
       </c>
       <c r="R28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="S28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="T28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="U28" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="V28" t="n">
         <v>16.01558584231752</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>800.7792921158759</v>
+      </c>
+      <c r="C29" t="n">
+        <v>800.7792921158759</v>
+      </c>
+      <c r="D29" t="n">
+        <v>622.6665647179811</v>
+      </c>
+      <c r="E29" t="n">
         <v>420.4495717594266</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>218.232578800872</v>
       </c>
-      <c r="D29" t="n">
-        <v>16.01558584231752</v>
-      </c>
-      <c r="E29" t="n">
-        <v>16.01558584231752</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16.01558584231752</v>
-      </c>
       <c r="G29" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="H29" t="n">
         <v>16.01558584231752</v>
@@ -6496,19 +6496,19 @@
         <v>800.7792921158759</v>
       </c>
       <c r="U29" t="n">
-        <v>622.6665647179811</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V29" t="n">
-        <v>622.6665647179811</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W29" t="n">
-        <v>420.4495717594266</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="X29" t="n">
-        <v>420.4495717594266</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Y29" t="n">
-        <v>420.4495717594266</v>
+        <v>800.7792921158759</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>381.1114377846678</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="C30" t="n">
-        <v>381.1114377846678</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="D30" t="n">
-        <v>381.1114377846678</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="E30" t="n">
-        <v>191.757351625473</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="F30" t="n">
-        <v>16.01558584231752</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="G30" t="n">
-        <v>16.01558584231752</v>
+        <v>109.711127722715</v>
       </c>
       <c r="H30" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="I30" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="J30" t="n">
         <v>16.01558584231752</v>
@@ -6551,43 +6551,43 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M30" t="n">
-        <v>441.397857320185</v>
+        <v>356.1602498777253</v>
       </c>
       <c r="N30" t="n">
-        <v>574.3944865592614</v>
+        <v>484.6350314517288</v>
       </c>
       <c r="O30" t="n">
-        <v>760.8075226173128</v>
+        <v>671.0480675097801</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7792921158759</v>
+        <v>792.9921536562631</v>
       </c>
       <c r="Q30" t="n">
         <v>800.7792921158759</v>
       </c>
       <c r="R30" t="n">
-        <v>785.5454237017769</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S30" t="n">
-        <v>785.5454237017769</v>
+        <v>474.0813230813791</v>
       </c>
       <c r="T30" t="n">
-        <v>785.5454237017769</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="U30" t="n">
-        <v>785.5454237017769</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="V30" t="n">
-        <v>785.5454237017769</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="W30" t="n">
-        <v>583.3284307432224</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="X30" t="n">
-        <v>583.3284307432224</v>
+        <v>271.8643301228245</v>
       </c>
       <c r="Y30" t="n">
-        <v>381.1114377846678</v>
+        <v>271.8643301228245</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G31" t="n">
         <v>16.01558584231752</v>
@@ -6663,10 +6663,10 @@
         <v>38.35457027255007</v>
       </c>
       <c r="X31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.35457027255007</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="C32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="D32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="E32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="F32" t="n">
-        <v>218.232578800872</v>
+        <v>39.66556143097858</v>
       </c>
       <c r="G32" t="n">
-        <v>218.232578800872</v>
+        <v>39.66556143097858</v>
       </c>
       <c r="H32" t="n">
-        <v>16.01558584231752</v>
+        <v>39.66556143097858</v>
       </c>
       <c r="I32" t="n">
         <v>16.01558584231752</v>
@@ -6703,49 +6703,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K32" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L32" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M32" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844021</v>
       </c>
       <c r="N32" t="n">
-        <v>572.7990561059416</v>
+        <v>572.7990561059419</v>
       </c>
       <c r="O32" t="n">
-        <v>723.4688780473045</v>
+        <v>723.4688780473048</v>
       </c>
       <c r="P32" t="n">
-        <v>800.7792921158759</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="Q32" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158762</v>
       </c>
       <c r="R32" t="n">
-        <v>780.4257730603301</v>
+        <v>646.3165403066422</v>
       </c>
       <c r="S32" t="n">
-        <v>780.4257730603301</v>
+        <v>444.0995473480876</v>
       </c>
       <c r="T32" t="n">
-        <v>578.2087801017756</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="U32" t="n">
-        <v>578.2087801017756</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="V32" t="n">
-        <v>578.2087801017756</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="W32" t="n">
-        <v>375.991787143221</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="X32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895331</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I33" t="n">
         <v>16.01558584231752</v>
@@ -6782,22 +6782,22 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K33" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L33" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M33" t="n">
-        <v>375.0667794178153</v>
+        <v>347.8378015316988</v>
       </c>
       <c r="N33" t="n">
-        <v>573.2596542164946</v>
+        <v>484.6350314517288</v>
       </c>
       <c r="O33" t="n">
-        <v>759.672690274546</v>
+        <v>671.0480675097801</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7792921158759</v>
+        <v>792.9921536562631</v>
       </c>
       <c r="Q33" t="n">
         <v>800.7792921158759</v>
@@ -6806,25 +6806,25 @@
         <v>800.7792921158759</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7792921158759</v>
+        <v>599.7232460181229</v>
       </c>
       <c r="T33" t="n">
-        <v>598.5622991573214</v>
+        <v>397.5062530595684</v>
       </c>
       <c r="U33" t="n">
-        <v>598.5622991573214</v>
+        <v>195.2892601010139</v>
       </c>
       <c r="V33" t="n">
-        <v>598.5622991573214</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="W33" t="n">
-        <v>396.3453061987668</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="X33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="C34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="D34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="E34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="F34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="G34" t="n">
         <v>16.01558584231752</v>
@@ -6873,37 +6873,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O34" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="C35" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="D35" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="E35" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="F35" t="n">
-        <v>218.232578800872</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="G35" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="H35" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="I35" t="n">
-        <v>16.01558584231752</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="J35" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K35" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L35" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M35" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844018</v>
       </c>
       <c r="N35" t="n">
         <v>572.7990561059416</v>
@@ -6958,31 +6958,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q35" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R35" t="n">
-        <v>625.9630212510962</v>
+        <v>646.316540306642</v>
       </c>
       <c r="S35" t="n">
-        <v>423.7460282925416</v>
+        <v>646.316540306642</v>
       </c>
       <c r="T35" t="n">
-        <v>221.5290353339871</v>
+        <v>646.316540306642</v>
       </c>
       <c r="U35" t="n">
-        <v>218.232578800872</v>
+        <v>646.316540306642</v>
       </c>
       <c r="V35" t="n">
-        <v>218.232578800872</v>
+        <v>646.316540306642</v>
       </c>
       <c r="W35" t="n">
-        <v>218.232578800872</v>
+        <v>646.316540306642</v>
       </c>
       <c r="X35" t="n">
-        <v>218.232578800872</v>
+        <v>444.0995473480874</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.232578800872</v>
+        <v>241.8825543895329</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M36" t="n">
-        <v>286.4421566530494</v>
+        <v>356.1602498777253</v>
       </c>
       <c r="N36" t="n">
         <v>484.6350314517288</v>
@@ -7049,19 +7049,19 @@
         <v>800.7792921158759</v>
       </c>
       <c r="U36" t="n">
-        <v>800.7792921158759</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V36" t="n">
-        <v>800.7792921158759</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W36" t="n">
-        <v>598.5622991573214</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="X36" t="n">
-        <v>396.3453061987668</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y36" t="n">
-        <v>194.1283132402123</v>
+        <v>16.01558584231752</v>
       </c>
     </row>
     <row r="37">
@@ -7110,34 +7110,34 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O37" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X37" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y37" t="n">
         <v>16.01558584231752</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="E38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="F38" t="n">
-        <v>39.66556143097836</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="G38" t="n">
-        <v>39.66556143097836</v>
+        <v>242.9877840930283</v>
       </c>
       <c r="H38" t="n">
-        <v>39.66556143097836</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="I38" t="n">
-        <v>39.66556143097836</v>
+        <v>40.77079113447374</v>
       </c>
       <c r="J38" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K38" t="n">
-        <v>72.05899007812815</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L38" t="n">
-        <v>199.5520805245968</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M38" t="n">
         <v>383.8129092844018</v>
@@ -7198,28 +7198,28 @@
         <v>800.7792921158759</v>
       </c>
       <c r="R38" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S38" t="n">
-        <v>646.316540306642</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T38" t="n">
-        <v>444.0995473480874</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="U38" t="n">
-        <v>241.8825543895329</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="V38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="W38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.66556143097836</v>
+        <v>396.3453061987668</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>610.8674159734169</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C39" t="n">
-        <v>408.6504230148623</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D39" t="n">
-        <v>234.8131074800015</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="E39" t="n">
-        <v>45.4590213208067</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="F39" t="n">
-        <v>45.4590213208067</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="G39" t="n">
-        <v>45.4590213208067</v>
+        <v>31.97511084010273</v>
       </c>
       <c r="H39" t="n">
-        <v>45.4590213208067</v>
+        <v>31.97511084010273</v>
       </c>
       <c r="I39" t="n">
         <v>16.01558584231752</v>
@@ -7256,16 +7256,16 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K39" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L39" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M39" t="n">
-        <v>375.0667794178153</v>
+        <v>356.1602498777253</v>
       </c>
       <c r="N39" t="n">
-        <v>503.5415609918188</v>
+        <v>484.6350314517288</v>
       </c>
       <c r="O39" t="n">
         <v>671.0480675097801</v>
@@ -7286,19 +7286,19 @@
         <v>800.7792921158759</v>
       </c>
       <c r="U39" t="n">
-        <v>800.7792921158759</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V39" t="n">
-        <v>800.7792921158759</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="W39" t="n">
-        <v>800.7792921158759</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="X39" t="n">
-        <v>800.7792921158759</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y39" t="n">
-        <v>800.7792921158759</v>
+        <v>396.3453061987668</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="C40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="D40" t="n">
-        <v>800.7792921158759</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="E40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="F40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="J40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="K40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="L40" t="n">
-        <v>778.4403076856433</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="M40" t="n">
-        <v>784.2480093979004</v>
+        <v>21.82328755457459</v>
       </c>
       <c r="N40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="O40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y40" t="n">
-        <v>800.7792921158759</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>578.2087801017758</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C41" t="n">
-        <v>375.9917871432212</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D41" t="n">
-        <v>173.7747941846667</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="E41" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="F41" t="n">
-        <v>16.01558584231752</v>
+        <v>218.232578800872</v>
       </c>
       <c r="G41" t="n">
         <v>16.01558584231752</v>
@@ -7414,49 +7414,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K41" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812789</v>
       </c>
       <c r="L41" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M41" t="n">
-        <v>383.8129092844021</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N41" t="n">
-        <v>572.7990561059419</v>
+        <v>572.7990561059416</v>
       </c>
       <c r="O41" t="n">
-        <v>723.4688780473048</v>
+        <v>723.4688780473045</v>
       </c>
       <c r="P41" t="n">
-        <v>800.7792921158762</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="V41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="W41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="X41" t="n">
-        <v>780.4257730603304</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Y41" t="n">
-        <v>780.4257730603304</v>
+        <v>598.5622991573214</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>680.7478095898748</v>
+        <v>241.528598799461</v>
       </c>
       <c r="C42" t="n">
-        <v>680.7478095898748</v>
+        <v>241.528598799461</v>
       </c>
       <c r="D42" t="n">
-        <v>680.7478095898748</v>
+        <v>241.528598799461</v>
       </c>
       <c r="E42" t="n">
-        <v>491.39372343068</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="F42" t="n">
-        <v>315.6519576475246</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="G42" t="n">
-        <v>153.498755247415</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="H42" t="n">
-        <v>153.498755247415</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="I42" t="n">
         <v>52.17451264026615</v>
@@ -7493,49 +7493,49 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K42" t="n">
-        <v>16.01558584231752</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L42" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M42" t="n">
-        <v>375.0667794178153</v>
+        <v>347.8378015316988</v>
       </c>
       <c r="N42" t="n">
-        <v>566.6073480996486</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O42" t="n">
-        <v>753.0203841576999</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P42" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q42" t="n">
         <v>800.7792921158759</v>
       </c>
       <c r="R42" t="n">
-        <v>680.7478095898748</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S42" t="n">
-        <v>680.7478095898748</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="T42" t="n">
-        <v>680.7478095898748</v>
+        <v>472.9203762205775</v>
       </c>
       <c r="U42" t="n">
-        <v>680.7478095898748</v>
+        <v>443.7455917580155</v>
       </c>
       <c r="V42" t="n">
-        <v>680.7478095898748</v>
+        <v>443.7455917580155</v>
       </c>
       <c r="W42" t="n">
-        <v>680.7478095898748</v>
+        <v>443.7455917580155</v>
       </c>
       <c r="X42" t="n">
-        <v>680.7478095898748</v>
+        <v>241.528598799461</v>
       </c>
       <c r="Y42" t="n">
-        <v>680.7478095898748</v>
+        <v>241.528598799461</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="C43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="D43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="E43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="F43" t="n">
         <v>16.01558584231752</v>
@@ -7584,37 +7584,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O43" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P43" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.2087801017756</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="C44" t="n">
-        <v>578.2087801017756</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="D44" t="n">
-        <v>420.4495717594266</v>
+        <v>218.232578800872</v>
       </c>
       <c r="E44" t="n">
-        <v>420.4495717594266</v>
+        <v>218.232578800872</v>
       </c>
       <c r="F44" t="n">
-        <v>420.4495717594266</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="G44" t="n">
-        <v>218.232578800872</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="H44" t="n">
-        <v>218.232578800872</v>
+        <v>16.01558584231752</v>
       </c>
       <c r="I44" t="n">
         <v>16.01558584231752</v>
@@ -7651,13 +7651,13 @@
         <v>16.01558584231752</v>
       </c>
       <c r="K44" t="n">
-        <v>72.05899007812789</v>
+        <v>72.05899007812815</v>
       </c>
       <c r="L44" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245968</v>
       </c>
       <c r="M44" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844018</v>
       </c>
       <c r="N44" t="n">
         <v>572.7990561059416</v>
@@ -7669,31 +7669,31 @@
         <v>800.7792921158759</v>
       </c>
       <c r="Q44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="R44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="S44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="T44" t="n">
-        <v>780.4257730603301</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="U44" t="n">
-        <v>780.4257730603301</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="V44" t="n">
-        <v>780.4257730603301</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="W44" t="n">
-        <v>780.4257730603301</v>
+        <v>598.5622991573214</v>
       </c>
       <c r="X44" t="n">
-        <v>578.2087801017756</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="Y44" t="n">
-        <v>578.2087801017756</v>
+        <v>396.3453061987668</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="C45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="D45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="E45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="F45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="G45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="H45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="I45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
       <c r="J45" t="n">
         <v>16.01558584231752</v>
       </c>
       <c r="K45" t="n">
-        <v>20.95101886603791</v>
+        <v>82.34666374468729</v>
       </c>
       <c r="L45" t="n">
-        <v>181.8093376428563</v>
+        <v>165.7545135386588</v>
       </c>
       <c r="M45" t="n">
-        <v>286.4421566530494</v>
+        <v>363.9473883373381</v>
       </c>
       <c r="N45" t="n">
-        <v>484.6350314517288</v>
+        <v>492.4221699113416</v>
       </c>
       <c r="O45" t="n">
-        <v>671.0480675097801</v>
+        <v>678.835205969393</v>
       </c>
       <c r="P45" t="n">
-        <v>792.9921536562631</v>
+        <v>800.7792921158759</v>
       </c>
       <c r="Q45" t="n">
         <v>800.7792921158759</v>
       </c>
       <c r="R45" t="n">
-        <v>800.7792921158759</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="S45" t="n">
-        <v>800.7792921158759</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="T45" t="n">
-        <v>598.5622991573214</v>
+        <v>675.1373691791321</v>
       </c>
       <c r="U45" t="n">
-        <v>598.5622991573214</v>
+        <v>472.9203762205775</v>
       </c>
       <c r="V45" t="n">
-        <v>420.4495717594266</v>
+        <v>270.703383262023</v>
       </c>
       <c r="W45" t="n">
-        <v>218.232578800872</v>
+        <v>68.48639030346843</v>
       </c>
       <c r="X45" t="n">
-        <v>16.01558584231752</v>
+        <v>68.48639030346843</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.01558584231752</v>
+        <v>52.17451264026615</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="C46" t="n">
         <v>16.01558584231752</v>
@@ -7821,37 +7821,37 @@
         <v>38.35457027255007</v>
       </c>
       <c r="O46" t="n">
-        <v>24.76268066790575</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="P46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="R46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="S46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="T46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="U46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="V46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="W46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="X46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.01558584231752</v>
+        <v>38.35457027255007</v>
       </c>
     </row>
   </sheetData>
@@ -8777,19 +8777,19 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>94.50510685705669</v>
+        <v>94.50510685705675</v>
       </c>
       <c r="N12" t="n">
-        <v>70.42231638856137</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>20.75017846129005</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>82.80031984638366</v>
+        <v>63.70281526043416</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.75429838746948</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>11.83563415094341</v>
@@ -9008,19 +9008,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>96.41848977889939</v>
+        <v>42.30178302606564</v>
       </c>
       <c r="M15" t="n">
-        <v>4.985285882545838</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N15" t="n">
         <v>70.4223163885614</v>
       </c>
       <c r="O15" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>82.80031984638366</v>
@@ -9251,19 +9251,19 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>40.388400104223</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>70.4223163885614</v>
+        <v>16.27230990468618</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>94.5051068570568</v>
+        <v>94.50510685705675</v>
       </c>
       <c r="N21" t="n">
-        <v>63.70281526043439</v>
+        <v>16.30560963572768</v>
       </c>
       <c r="O21" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9719,25 +9719,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>96.41848977889939</v>
+        <v>18.18569282652878</v>
       </c>
       <c r="M24" t="n">
-        <v>94.50510685705675</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>83.30669842600014</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R24" t="n">
         <v>11.83563415094341</v>
@@ -9962,7 +9962,7 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
-        <v>75.40760227110729</v>
+        <v>83.27339869495864</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R27" t="n">
         <v>11.83563415094341</v>
@@ -10199,19 +10199,19 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
-        <v>94.50510685705675</v>
+        <v>8.406513480834803</v>
       </c>
       <c r="N30" t="n">
-        <v>4.567522894012995</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.75429838746948</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>11.83563415094341</v>
@@ -10430,25 +10430,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
-        <v>94.50510685705675</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>70.42231638856143</v>
+        <v>8.406513480834832</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>1.146295295724052</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.75429838746948</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10673,10 +10673,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
-        <v>4.985285882545838</v>
+        <v>75.40760227110729</v>
       </c>
       <c r="N36" t="n">
-        <v>70.4223163885614</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
@@ -10904,19 +10904,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>94.50510685705675</v>
+        <v>8.406513480834803</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>83.30669842600014</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>82.80031984638366</v>
@@ -11062,7 +11062,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850267</v>
       </c>
       <c r="L41" t="n">
         <v>108.5919157831171</v>
@@ -11141,25 +11141,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>1.759872832997956</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>94.50510685705675</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>63.70281526043416</v>
+        <v>16.27230990468618</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R42" t="n">
         <v>11.83563415094341</v>
@@ -11299,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850267</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>108.5919157831171</v>
@@ -11378,16 +11378,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>6.745158715543807</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>18.18569282652878</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>94.50510685705672</v>
       </c>
       <c r="N45" t="n">
-        <v>70.4223163885614</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>102.4042030119497</v>
@@ -11396,7 +11396,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.62009481132077</v>
+        <v>46.75429838746948</v>
       </c>
       <c r="R45" t="n">
         <v>11.83563415094341</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680942</v>
       </c>
       <c r="C11" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142786</v>
       </c>
       <c r="E11" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>198.9515945444001</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
         <v>221.0824706708171</v>
       </c>
       <c r="H11" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I11" t="n">
-        <v>195.0475233491113</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J11" t="n">
         <v>24.50765323923466</v>
@@ -23305,7 +23305,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S11" t="n">
         <v>214.683906106687</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>201.5973762712663</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S12" t="n">
-        <v>199.0454856367754</v>
+        <v>22.7138855128596</v>
       </c>
       <c r="T12" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W12" t="n">
-        <v>110.0402780760144</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
@@ -23442,10 +23442,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K13" t="n">
-        <v>32.50776060998929</v>
+        <v>40.38989547797919</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.777489009342446</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P13" t="n">
         <v>40.84461224785825</v>
@@ -23484,7 +23484,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5502738121359</v>
+        <v>193.4346792262057</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680942</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452395</v>
       </c>
       <c r="D14" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>183.6269548123715</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>198.9515945444001</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H14" t="n">
-        <v>140.2143329531761</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I14" t="n">
         <v>218.4609991818855</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>152.9181242911416</v>
@@ -23557,13 +23557,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503244</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>221.7473601362566</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>50.24217127915156</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I15" t="n">
         <v>100.3110001810774</v>
@@ -23627,7 +23627,7 @@
         <v>199.0454856367754</v>
       </c>
       <c r="T15" t="n">
-        <v>228.1472729888334</v>
+        <v>213.0657432588754</v>
       </c>
       <c r="U15" t="n">
         <v>249.6177586836009</v>
@@ -23639,10 +23639,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199399</v>
       </c>
       <c r="Y15" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462435</v>
       </c>
     </row>
     <row r="16">
@@ -23679,10 +23679,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K16" t="n">
-        <v>32.50776060998929</v>
+        <v>40.38989547797919</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.777489009342446</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -23691,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P16" t="n">
         <v>40.84461224785825</v>
@@ -23706,7 +23706,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T16" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U16" t="n">
         <v>291.1974793176597</v>
@@ -23734,28 +23734,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452395</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142786</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>222.8148174494532</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H17" t="n">
-        <v>140.2143329531761</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I17" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J17" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.1499838649903</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>152.9181242911416</v>
       </c>
       <c r="S17" t="n">
-        <v>214.683906106687</v>
+        <v>83.0099430869962</v>
       </c>
       <c r="T17" t="n">
         <v>215.3895565962661</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23816,7 +23816,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>154.8008461007484</v>
       </c>
       <c r="E18" t="n">
         <v>187.4605452976028</v>
@@ -23834,7 +23834,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J18" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,10 +23867,10 @@
         <v>27.9524499598644</v>
       </c>
       <c r="U18" t="n">
-        <v>49.42293565463191</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V18" t="n">
-        <v>196.2044913714394</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23931,7 +23931,7 @@
         <v>13.45597070859787</v>
       </c>
       <c r="P19" t="n">
-        <v>18.72901766192803</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q19" t="n">
         <v>117.7104335796887</v>
@@ -23958,7 +23958,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.5502738121359</v>
+        <v>193.4346792262057</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>159.7637319073183</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>198.9515945444</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>221.082470670817</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H20" t="n">
-        <v>164.0775558582292</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I20" t="n">
         <v>218.4609991818855</v>
@@ -24016,19 +24016,19 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R20" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771802</v>
       </c>
       <c r="T20" t="n">
-        <v>215.3895565962661</v>
+        <v>15.19473356729713</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>289.8909661682489</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24050,25 +24050,25 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>3.647604586270347</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>160.5316703761085</v>
+        <v>81.22576166373044</v>
       </c>
       <c r="H21" t="n">
-        <v>16.23197598776541</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J21" t="n">
         <v>35.79733752996914</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,7 +24141,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H22" t="n">
         <v>163.9752151566217</v>
@@ -24189,7 +24189,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W22" t="n">
-        <v>272.3702005604074</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X22" t="n">
         <v>217.7416213385031</v>
@@ -24226,10 +24226,10 @@
         <v>340.4091559821451</v>
       </c>
       <c r="I23" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>24.50765323923466</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R23" t="n">
-        <v>1.09417740646046</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S23" t="n">
         <v>14.48908307771802</v>
@@ -24271,10 +24271,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>148.6220562745439</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>201.5973762712663</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>3.647604586270404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24308,7 +24308,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J24" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>182.8967267502052</v>
       </c>
       <c r="T24" t="n">
-        <v>162.8697735321659</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W24" t="n">
         <v>283.2492567629311</v>
@@ -24353,7 +24353,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462435</v>
       </c>
     </row>
     <row r="25">
@@ -24420,7 +24420,7 @@
         <v>216.3554192360613</v>
       </c>
       <c r="U25" t="n">
-        <v>291.1974793176597</v>
+        <v>269.0818847317294</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24429,7 +24429,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X25" t="n">
-        <v>195.6260267525728</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y25" t="n">
         <v>215.5502738121359</v>
@@ -24451,7 +24451,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>159.7637319073183</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
@@ -24460,7 +24460,7 @@
         <v>421.2772936997861</v>
       </c>
       <c r="H26" t="n">
-        <v>340.4091559821451</v>
+        <v>164.0775558582293</v>
       </c>
       <c r="I26" t="n">
         <v>218.4609991818855</v>
@@ -24490,7 +24490,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S26" t="n">
         <v>214.683906106687</v>
@@ -24505,10 +24505,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>301.9782496465191</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>148.6220562745439</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
         <v>177.7341533662131</v>
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>3.647604586270404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24542,10 +24542,10 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I27" t="n">
-        <v>84.16224129450714</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.79733752996914</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S27" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>27.9524499598644</v>
+        <v>50.666335472724</v>
       </c>
       <c r="U27" t="n">
         <v>249.6177586836009</v>
@@ -24590,7 +24590,7 @@
         <v>29.83824068199399</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462435</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R28" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S28" t="n">
         <v>236.6308406326193</v>
@@ -24660,7 +24660,7 @@
         <v>291.1974793176597</v>
       </c>
       <c r="V28" t="n">
-        <v>215.2459554903416</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
         <v>294.4857951463376</v>
@@ -24682,22 +24682,22 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>133.4022964452395</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>118.9369326142786</v>
+        <v>142.8001555193318</v>
       </c>
       <c r="E29" t="n">
-        <v>359.9585549362873</v>
+        <v>159.7637319073183</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444001</v>
       </c>
       <c r="G29" t="n">
         <v>421.2772936997861</v>
       </c>
       <c r="H29" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531761</v>
       </c>
       <c r="I29" t="n">
         <v>218.4609991818855</v>
@@ -24736,13 +24736,13 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U29" t="n">
-        <v>72.38497118286605</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>125.1969024503244</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24767,22 +24767,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>133.0827343114269</v>
+        <v>76.12148537980264</v>
       </c>
       <c r="I30" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J30" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>109.3039739774185</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>228.1472729888334</v>
+        <v>27.9524499598644</v>
       </c>
       <c r="U30" t="n">
         <v>249.6177586836009</v>
@@ -24821,13 +24821,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>83.05443373396213</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>42.70144338462435</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>146.7136078779125</v>
+        <v>168.8292024638427</v>
       </c>
       <c r="H31" t="n">
         <v>163.9752151566217</v>
@@ -24903,7 +24903,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X31" t="n">
-        <v>217.7416213385031</v>
+        <v>195.6260267525728</v>
       </c>
       <c r="Y31" t="n">
         <v>215.5502738121359</v>
@@ -24928,16 +24928,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444001</v>
       </c>
       <c r="G32" t="n">
         <v>421.2772936997861</v>
       </c>
       <c r="H32" t="n">
-        <v>140.2143329531761</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I32" t="n">
-        <v>218.4609991818855</v>
+        <v>195.047523349111</v>
       </c>
       <c r="J32" t="n">
         <v>24.50765323923466</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R32" t="n">
-        <v>152.9181242911416</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771802</v>
       </c>
       <c r="T32" t="n">
         <v>15.19473356729713</v>
@@ -24979,10 +24979,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>125.1969024503244</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>192.6352630445874</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25010,13 +25010,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>84.51107043327004</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H33" t="n">
         <v>133.0827343114269</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J33" t="n">
         <v>35.79733752996914</v>
@@ -25046,22 +25046,22 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S33" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>27.9524499598644</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>71.818987664063</v>
       </c>
       <c r="W33" t="n">
-        <v>83.05443373396213</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>29.83824068199399</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25089,7 +25089,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H34" t="n">
         <v>163.9752151566217</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P34" t="n">
-        <v>32.1849883705259</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q34" t="n">
         <v>117.7104335796887</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>165.4556819745546</v>
       </c>
       <c r="C35" t="n">
         <v>333.5971194742085</v>
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H35" t="n">
         <v>340.4091559821451</v>
@@ -25177,7 +25177,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J35" t="n">
-        <v>24.50765323923466</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.48908307771802</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T35" t="n">
-        <v>15.19473356729713</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U35" t="n">
-        <v>245.453079338998</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25219,10 +25219,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>148.6220562745439</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.68115725711863</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25289,19 +25289,19 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W36" t="n">
         <v>83.05443373396213</v>
       </c>
       <c r="X36" t="n">
-        <v>29.83824068199399</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.70144338462435</v>
+        <v>66.56466628967752</v>
       </c>
     </row>
     <row r="37">
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P37" t="n">
-        <v>32.1849883705259</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q37" t="n">
         <v>117.7104335796887</v>
@@ -25380,7 +25380,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y37" t="n">
-        <v>215.5502738121359</v>
+        <v>193.4346792262057</v>
       </c>
     </row>
     <row r="38">
@@ -25402,19 +25402,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>247.3224706886879</v>
       </c>
       <c r="G38" t="n">
         <v>421.2772936997861</v>
       </c>
       <c r="H38" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531761</v>
       </c>
       <c r="I38" t="n">
         <v>218.4609991818855</v>
       </c>
       <c r="J38" t="n">
-        <v>1.094177406460428</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>20.1499838649903</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>152.9181242911416</v>
       </c>
       <c r="S38" t="n">
         <v>214.683906106687</v>
@@ -25450,7 +25450,7 @@
         <v>48.52174827781289</v>
       </c>
       <c r="V38" t="n">
-        <v>113.1096189720541</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
         <v>3.647604586270404</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>133.0827343114269</v>
       </c>
       <c r="I39" t="n">
-        <v>71.16199905737311</v>
+        <v>84.51107043327004</v>
       </c>
       <c r="J39" t="n">
         <v>35.79733752996914</v>
@@ -25526,13 +25526,13 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396213</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841968</v>
       </c>
       <c r="C40" t="n">
         <v>165.5867821959998</v>
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>114.3161298179835</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25630,19 +25630,19 @@
         <v>164.3615045680942</v>
       </c>
       <c r="C41" t="n">
-        <v>133.4022964452395</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>118.9369326142786</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>203.7769386773616</v>
+        <v>183.6269548123715</v>
       </c>
       <c r="F41" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H41" t="n">
         <v>340.4091559821451</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R41" t="n">
         <v>152.9181242911416</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662131</v>
       </c>
     </row>
     <row r="42">
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H42" t="n">
         <v>133.0827343114269</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.554336006635367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T42" t="n">
-        <v>228.1472729888334</v>
+        <v>27.9524499598644</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6177586836009</v>
+        <v>220.7347220656645</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25772,7 +25772,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199399</v>
       </c>
       <c r="Y42" t="n">
         <v>242.8962664135933</v>
@@ -25797,7 +25797,7 @@
         <v>136.4317244039137</v>
       </c>
       <c r="F43" t="n">
-        <v>131.7685403657761</v>
+        <v>109.6529457798459</v>
       </c>
       <c r="G43" t="n">
         <v>168.8292024638427</v>
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P43" t="n">
         <v>40.84461224785825</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.0508097023563</v>
+        <v>117.7104335796887</v>
       </c>
       <c r="R43" t="n">
         <v>202.8351353702983</v>
@@ -25870,22 +25870,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>162.9501393843221</v>
+        <v>142.8001555193318</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444001</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0824706708171</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H44" t="n">
         <v>340.4091559821451</v>
       </c>
       <c r="I44" t="n">
-        <v>18.2661761529165</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J44" t="n">
         <v>24.50765323923466</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.1499838649903</v>
       </c>
       <c r="R44" t="n">
         <v>152.9181242911416</v>
@@ -25921,7 +25921,7 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781289</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25967,7 +25967,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J45" t="n">
-        <v>35.79733752996914</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T45" t="n">
-        <v>27.9524499598644</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463191</v>
       </c>
       <c r="V45" t="n">
-        <v>72.96832505625656</v>
+        <v>49.1051021512034</v>
       </c>
       <c r="W45" t="n">
         <v>83.05443373396213</v>
       </c>
       <c r="X45" t="n">
-        <v>29.83824068199399</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.8962664135933</v>
+        <v>226.7475075270231</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C46" t="n">
-        <v>165.5867821959998</v>
+        <v>143.4711876100696</v>
       </c>
       <c r="D46" t="n">
         <v>141.3987433365328</v>
@@ -26061,10 +26061,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.45597070859787</v>
       </c>
       <c r="P46" t="n">
-        <v>32.1849883705259</v>
+        <v>40.84461224785825</v>
       </c>
       <c r="Q46" t="n">
         <v>117.7104335796887</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>437135.8998957429</v>
+        <v>437135.8998957427</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437135.8998957428</v>
+        <v>437135.8998957427</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437135.8998957428</v>
+        <v>437135.8998957429</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>713195.753504917</v>
       </c>
       <c r="D2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049171</v>
       </c>
       <c r="E2" t="n">
         <v>324725.2816894843</v>
@@ -26337,25 +26337,25 @@
         <v>324725.2816894843</v>
       </c>
       <c r="J2" t="n">
+        <v>324725.2816894843</v>
+      </c>
+      <c r="K2" t="n">
+        <v>324725.2816894844</v>
+      </c>
+      <c r="L2" t="n">
         <v>324725.2816894842</v>
-      </c>
-      <c r="K2" t="n">
-        <v>324725.2816894843</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324725.2816894843</v>
       </c>
       <c r="M2" t="n">
         <v>324725.2816894843</v>
       </c>
       <c r="N2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894842</v>
       </c>
       <c r="O2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="P2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894843</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49889.35067811117</v>
+        <v>49889.3506781112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>494098.293118241</v>
       </c>
       <c r="C4" t="n">
-        <v>494098.293118241</v>
+        <v>494098.2931182411</v>
       </c>
       <c r="D4" t="n">
         <v>494098.293118241</v>
@@ -26432,13 +26432,13 @@
         <v>4314.732351872657</v>
       </c>
       <c r="G4" t="n">
-        <v>4314.732351872656</v>
+        <v>4314.732351872657</v>
       </c>
       <c r="H4" t="n">
-        <v>4314.732351872658</v>
+        <v>4314.732351872657</v>
       </c>
       <c r="I4" t="n">
-        <v>4314.732351872656</v>
+        <v>4314.732351872657</v>
       </c>
       <c r="J4" t="n">
         <v>4314.732351872657</v>
@@ -26453,13 +26453,13 @@
         <v>4314.732351872657</v>
       </c>
       <c r="N4" t="n">
-        <v>4314.732351872656</v>
+        <v>4314.732351872657</v>
       </c>
       <c r="O4" t="n">
         <v>4314.732351872657</v>
       </c>
       <c r="P4" t="n">
-        <v>4314.732351872656</v>
+        <v>4314.732351872657</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>24714.27487147588</v>
       </c>
       <c r="H5" t="n">
-        <v>24714.27487147589</v>
+        <v>24714.27487147588</v>
       </c>
       <c r="I5" t="n">
         <v>24714.27487147588</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185469.860386676</v>
+        <v>185422.9158457432</v>
       </c>
       <c r="C6" t="n">
-        <v>185469.860386676</v>
+        <v>185422.9158457432</v>
       </c>
       <c r="D6" t="n">
-        <v>185469.860386676</v>
+        <v>185422.9158457434</v>
       </c>
       <c r="E6" t="n">
-        <v>-226308.0271971901</v>
+        <v>-239303.987465304</v>
       </c>
       <c r="F6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="G6" t="n">
-        <v>295696.2744661358</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="H6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="I6" t="n">
-        <v>295696.2744661358</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="J6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.3141980219</v>
       </c>
       <c r="K6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.314198022</v>
       </c>
       <c r="L6" t="n">
-        <v>295696.2744661358</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="M6" t="n">
-        <v>245806.9237880246</v>
+        <v>232810.9635199107</v>
       </c>
       <c r="N6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.3141980218</v>
       </c>
       <c r="O6" t="n">
-        <v>295696.2744661356</v>
+        <v>282700.3141980217</v>
       </c>
       <c r="P6" t="n">
-        <v>295696.2744661357</v>
+        <v>282700.3141980218</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="F4" t="n">
         <v>200.194823028969</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M12" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N12" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O12" t="n">
-        <v>106.6419714675741</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P12" t="n">
-        <v>123.175844592407</v>
+        <v>104.0783400064576</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>7.865796423851293</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L15" t="n">
-        <v>162.4831502796146</v>
+        <v>108.3664435267808</v>
       </c>
       <c r="M15" t="n">
-        <v>110.6750020544581</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N15" t="n">
         <v>200.194823028969</v>
       </c>
       <c r="O15" t="n">
-        <v>188.2959960182338</v>
+        <v>85.89179300628408</v>
       </c>
       <c r="P15" t="n">
         <v>123.175844592407</v>
@@ -35971,19 +35971,19 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M18" t="n">
-        <v>146.0781162761352</v>
+        <v>105.6897161719122</v>
       </c>
       <c r="N18" t="n">
-        <v>200.194823028969</v>
+        <v>146.0448165450937</v>
       </c>
       <c r="O18" t="n">
-        <v>85.89179300628408</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P18" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L21" t="n">
         <v>162.4831502796146</v>
@@ -36211,13 +36211,13 @@
         <v>200.194823028969</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4753219008419</v>
+        <v>146.0781162761352</v>
       </c>
       <c r="O21" t="n">
-        <v>188.2959960182338</v>
+        <v>85.89179300628408</v>
       </c>
       <c r="P21" t="n">
-        <v>40.37552474602339</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q21" t="n">
         <v>7.865796423851293</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L24" t="n">
-        <v>162.4831502796146</v>
+        <v>84.25035332724396</v>
       </c>
       <c r="M24" t="n">
         <v>200.194823028969</v>
@@ -36451,13 +36451,13 @@
         <v>129.7725066404076</v>
       </c>
       <c r="O24" t="n">
-        <v>169.1984914322842</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P24" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M27" t="n">
-        <v>181.0973184430195</v>
+        <v>188.9631148668709</v>
       </c>
       <c r="N27" t="n">
         <v>129.7725066404076</v>
@@ -36694,7 +36694,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M30" t="n">
-        <v>200.194823028969</v>
+        <v>114.096229652747</v>
       </c>
       <c r="N30" t="n">
-        <v>134.3400295344206</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O30" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P30" t="n">
-        <v>40.37552474602339</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.865796423851293</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L33" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M33" t="n">
-        <v>200.194823028969</v>
+        <v>105.6897161719122</v>
       </c>
       <c r="N33" t="n">
-        <v>200.194823028969</v>
+        <v>138.1790201212424</v>
       </c>
       <c r="O33" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P33" t="n">
-        <v>41.52182004174744</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.865796423851293</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M36" t="n">
-        <v>110.6750020544581</v>
+        <v>181.0973184430195</v>
       </c>
       <c r="N36" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O36" t="n">
         <v>188.2959960182338</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L39" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M39" t="n">
-        <v>200.194823028969</v>
+        <v>114.096229652747</v>
       </c>
       <c r="N39" t="n">
         <v>129.7725066404076</v>
       </c>
       <c r="O39" t="n">
-        <v>169.1984914322842</v>
+        <v>188.2959960182338</v>
       </c>
       <c r="P39" t="n">
         <v>123.175844592407</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.60949922809147</v>
+        <v>56.60949922809129</v>
       </c>
       <c r="L41" t="n">
         <v>128.7808994408774</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L42" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M42" t="n">
-        <v>200.194823028969</v>
+        <v>105.6897161719122</v>
       </c>
       <c r="N42" t="n">
-        <v>193.4753219008417</v>
+        <v>146.0448165450937</v>
       </c>
       <c r="O42" t="n">
         <v>188.2959960182338</v>
       </c>
       <c r="P42" t="n">
-        <v>40.37552474602339</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.60949922809129</v>
+        <v>56.60949922809147</v>
       </c>
       <c r="L44" t="n">
         <v>128.7808994408774</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4.985285882545851</v>
+        <v>67.00108879027249</v>
       </c>
       <c r="L45" t="n">
-        <v>162.4831502796146</v>
+        <v>84.25035332724396</v>
       </c>
       <c r="M45" t="n">
-        <v>105.6897161719122</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N45" t="n">
-        <v>200.194823028969</v>
+        <v>129.7725066404076</v>
       </c>
       <c r="O45" t="n">
         <v>188.2959960182338</v>
@@ -38116,7 +38116,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.865796423851293</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
